--- a/output/file.xlsx
+++ b/output/file.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\generate_noidung_phuctra\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="999999"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t>Số HSHK</t>
   </si>
@@ -47,79 +51,85 @@
     <t>LA CHỮ THƯỢNG</t>
   </si>
   <si>
-    <t xml:space="preserve">NGUYỄN TẤN SANG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND vợ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND cha , số CMND mẹ .
-LÊ THỊ ĐÀO: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND chồng, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND cha , số CMND mẹ .
-NGUYỄN THỊ LÊ: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND cha, số CMND mẹ, số CMND chồng, nơi đăng ký khai sinh.
-NGUYỄN TẤN CƯỜNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND cha, số CMND mẹ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND vợ.
-NGUYỄN TẤN DUNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND bản thân, số CMND chủ hộ, số CMND cha, số CMND mẹ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND vợ.
+    <t xml:space="preserve">NGUYỄN TẤN SANG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580323981, số CMND chủ hộ: 191801347, số CMND vợ: 191040574,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+LÊ THỊ ĐÀO: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580323981, số CMND chủ hộ: 191801347, số CMND chồng: 191801347,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+NGUYỄN THỊ LÊ: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580323981, số CMND chủ hộ: 191801347, số CMND cha: 191801347, số CMND mẹ: 191801347, số CMND chồng: 191800676, 
+NGUYỄN TẤN CƯỜNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580323981, số CMND chủ hộ: 191801347, số CMND cha: 191801347, số CMND mẹ: 191801347, Công dân cung cấp giấy khai sinh bản chính 80 cấp ngày 16/08/1996 bởi UBND phường Hương Chữ, Hương Trà, Thừa Thiên Huế. Chưa cung cấp được:  số CMND vợ.
+NGUYỄN TẤN DUNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580323981, số CMND bản thân: 28/02/2019, số CMND chủ hộ: 191801347, số CMND cha: 191801347, số CMND mẹ: 191801347, Công dân cung cấp giấy khai sinh bản chính 80 cấp ngày 16/08/1996 bởi UBND phường Hương Chữ, Hương Trà, Thừa Thiên Huế. Chưa cung cấp được:  số CMND vợ.
 </t>
   </si>
   <si>
     <t>LÊ ĐÌNH SƠN</t>
   </si>
   <si>
-    <t xml:space="preserve">LÊ ĐÌNH SƠN: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND vợ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND cha , số CMND mẹ .
-NGUYỄN THỊ THANH HƯƠNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND chồng, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND cha , số CMND mẹ .
-LÊ THỊ CẨM TÚ: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND cha, số CMND mẹ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND chồng.
-LÊ ĐÌNH QUỐC ĐẠT: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND cha, số CMND mẹ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND vợ.
+    <t xml:space="preserve">LÊ ĐÌNH SƠN: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580351939, số CMND chủ hộ: 191121474, số CMND vợ: 191020779,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+NGUYỄN THỊ THANH HƯƠNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580351939, số CMND chủ hộ: 191121474, số CMND chồng: 191121474,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+LÊ THỊ CẨM TÚ: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580351939, số CMND chủ hộ: 191121474, số CMND cha: 191121474, số CMND mẹ: 191020779,  Chưa cung cấp được:  số CMND chồng.
+LÊ ĐÌNH QUỐC ĐẠT: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580351939, số CMND chủ hộ: 191121474, số CMND cha: 191121474, số CMND mẹ: 191020779,  Chưa cung cấp được:  số CMND vợ.
 </t>
   </si>
   <si>
     <t>LÊ CÔNG HẢI</t>
   </si>
   <si>
-    <t xml:space="preserve">LÊ CÔNG HẢI: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND cha, số CMND vợ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND mẹ .
-HỒ THỊ SEN: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND chồng, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND cha , số CMND mẹ .
-LÊ THỊ HÒA: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND cha, số CMND mẹ, số CMND chồng, nơi đăng ký khai sinh.
-LÊ THỊ LÝ THUẬN: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND cha, số CMND mẹ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND chồng.
-LÊ CÔNG THÀNH: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND bản thân, số CMND chủ hộ, số CMND cha, số CMND mẹ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND vợ.
-LÊ THỊ KIM TUYẾN: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND cha, số CMND mẹ, nơi đăng ký khai sinh. Chưa cung cấp được: , số CMND bản thân , số CMND chồng.
+    <t xml:space="preserve">LÊ CÔNG HẢI: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580300249, số CMND chủ hộ: 191155200, số CMND cha: 190115584, số CMND vợ: 191280764,  Chưa cung cấp được:  số CMND mẹ .
+HỒ THỊ SEN: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580300249, số CMND chủ hộ: 191155200, số CMND chồng: 191155200,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+LÊ THỊ HÒA: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580300249, số CMND chủ hộ: 191155200, số CMND cha: 191155200, số CMND mẹ: 191280764, số CMND chồng: 191707203, 
+LÊ THỊ LÝ THUẬN: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580300249, số CMND chủ hộ: 191155200, số CMND cha: 191155200, số CMND mẹ: 191280764,  Chưa cung cấp được:  số CMND chồng.
+LÊ CÔNG THÀNH: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580300249, số CMND bản thân: 08/12/2019, số CMND chủ hộ: 191155200, số CMND cha: 191155200, số CMND mẹ: 191280764,  Chưa cung cấp được:  số CMND vợ.
+LÊ THỊ KIM TUYẾN: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580300249, số CMND chủ hộ: 191155200, số CMND cha: 191155200, số CMND mẹ: 191280764,  Chưa cung cấp được: , số CMND bản thân , số CMND chồng.
 </t>
   </si>
   <si>
     <t>LÊ ĐÌNH TỚI</t>
   </si>
   <si>
-    <t xml:space="preserve">LÊ ĐÌNH TỚI: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND vợ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND cha , số CMND mẹ .
-LÊ THỊ XUÂN: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND chồng, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND cha , số CMND mẹ .
-LÊ ĐÌNH TIẾNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND cha, số CMND mẹ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND vợ.
-LÊ ĐÌNH TIỂN: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND cha, số CMND mẹ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND vợ.
-LÊ ĐÌNH TÂM PHỤNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND cha, số CMND mẹ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND vợ.
-LÊ ĐÌNH DŨNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND cha, số CMND mẹ, số CMND vợ, nơi đăng ký khai sinh.
-LÊ THỊ BÉ: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND cha, số CMND mẹ, số CMND chồng, nơi đăng ký khai sinh.
-LÊ MÂY THU: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND cha, số CMND mẹ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND chồng.
-LÊ THIÊN HỒNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND cha, số CMND mẹ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND chồng.
-LÊ PHƯƠNG ĐÔNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND bản thân, số CMND chủ hộ, số CMND cha, số CMND mẹ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND chồng.
+    <t xml:space="preserve">LÊ ĐÌNH TỚI: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580273231, số CMND chủ hộ: 190927031, số CMND vợ: 190559753, Công dân cung cấp giấy khai sinh  cha cấp ngày  bởi UBND phường Hương Chữ, Hương Trà, Thừa Thiên Huế. Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+LÊ THỊ XUÂN: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580273231, số CMND chủ hộ: 190927031, số CMND chồng: 190927031,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+LÊ ĐÌNH TIẾNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580273231, số CMND chủ hộ: 190927031, số CMND cha: 190927031, số CMND mẹ: 190559753,  Chưa cung cấp được:  số CMND vợ.
+LÊ ĐÌNH TIỂN: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580273231, số CMND chủ hộ: 190927031, số CMND cha: 190927031, số CMND mẹ: 190559753,  Chưa cung cấp được:  số CMND vợ.
+LÊ ĐÌNH TÂM PHỤNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580273231, số CMND chủ hộ: 190927031, số CMND cha: 190927031, số CMND mẹ: 190559753,  Chưa cung cấp được:  số CMND vợ.
+</t>
+  </si>
+  <si>
+    <t>LÊ ĐÌNH DŨNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LÊ ĐÌNH DŨNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580171138, số CMND chủ hộ: 191040376, số CMND cha: 190559805, số CMND mẹ: 1190559920, số CMND vợ: 191121503, 
+LÊ THỊ BÉ: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580171138, số CMND chủ hộ: 191040376, số CMND cha: 190559534, số CMND mẹ: 190559538, số CMND chồng: 191040376, 
+LÊ MÂY THU: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580171138, số CMND chủ hộ: 191040376, số CMND cha: 191040376, số CMND mẹ: 191121503,  Chưa cung cấp được:  số CMND chồng.
+LÊ THIÊN HỒNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580171138, số CMND chủ hộ: 191040376, số CMND cha: 191040376, số CMND mẹ: 191121503,  Chưa cung cấp được:  số CMND chồng.
+LÊ PHƯƠNG ĐÔNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580171138, số CMND bản thân: 08/12/2019, số CMND chủ hộ: 191040376, số CMND cha: 191040376, số CMND mẹ: 191121503,  Chưa cung cấp được:  số CMND chồng.
 </t>
   </si>
   <si>
     <t>HÀ VĂN GẮNG</t>
   </si>
   <si>
-    <t xml:space="preserve">HÀ VĂN GẮNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND vợ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND cha , số CMND mẹ .
-LÊ THỊ LỆ THỦY: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND cha, số CMND mẹ, số CMND chồng, nơi đăng ký khai sinh.
-HÀ THỊ HỢI: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND cha , số CMND mẹ , số CMND chồng.
-HÀ VĂN DŨNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND cha, số CMND mẹ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND vợ.
-HÀ VĂN NHƯ Ý: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND bản thân, số CMND chủ hộ, số CMND cha, số CMND mẹ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND chồng.
+    <t xml:space="preserve">HÀ VĂN GẮNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580218297, số CMND chủ hộ: 191121492, số CMND vợ: 191121453,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+LÊ THỊ LỆ THỦY: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580218297, số CMND chủ hộ: 191121492, số CMND cha: 190559868, số CMND mẹ: 190559786, số CMND chồng: 191121492, 
+HÀ THỊ HỢI: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580218297, số CMND chủ hộ: 191121492,  Chưa cung cấp được:  số CMND cha , số CMND mẹ , số CMND chồng.
+HÀ VĂN DŨNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580218297, số CMND chủ hộ: 191121492, số CMND cha: 191121492, số CMND mẹ: 191121453,  Chưa cung cấp được:  số CMND vợ.
+HÀ VĂN NHƯ Ý: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580218297, số CMND bản thân:  , số CMND chủ hộ: 191121492, số CMND cha: 191121492, số CMND mẹ: 191121453,  Chưa cung cấp được:  số CMND chồng.
 </t>
   </si>
   <si>
     <t>LÊ QUANG SẶNG</t>
   </si>
   <si>
-    <t xml:space="preserve">LÊ QUANG SẶNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND vợ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND cha , số CMND mẹ .
-LÊ THIỊ NGỌC ANH: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND chồng, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND cha , số CMND mẹ .
-LÊ QUANG HÙNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND cha, số CMND mẹ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND vợ.
-LÊ QUANG CƯỜNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND cha, số CMND mẹ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND vợ.
+    <t xml:space="preserve">LÊ QUANG SẶNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580318411, số CMND chủ hộ: 191121547, số CMND vợ: 191121546,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+LÊ THIỊ NGỌC ANH: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580318411, số CMND chủ hộ: 191121547, số CMND chồng: 191121547,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+LÊ QUANG HÙNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580318411, số CMND chủ hộ: 191121547, số CMND cha: 191121547, số CMND mẹ: 191121546,  Chưa cung cấp được:  số CMND vợ.
+LÊ QUANG CƯỜNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580318411, số CMND chủ hộ: 191121547, số CMND cha: 191121547, số CMND mẹ: 191121546,  Chưa cung cấp được:  số CMND vợ.
 </t>
   </si>
   <si>
     <t>HÀ VĂN NGỪNG</t>
   </si>
   <si>
-    <t xml:space="preserve">HÀ VĂN NGỪNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND vợ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND cha , số CMND mẹ .
-LÊ THỊ LỨC: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND chồng, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND cha , số CMND mẹ .
-HÀ VĂN MÙI: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND cha, số CMND mẹ, số CMND vợ, nơi đăng ký khai sinh.
+    <t xml:space="preserve">HÀ VĂN NGỪNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580308139, số CMND chủ hộ: 190559667, số CMND vợ: 190559809,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+LÊ THỊ LỨC: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580308139, số CMND chủ hộ: 190559667, số CMND chồng: 190559667,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+HÀ VĂN MÙI: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580308139, số CMND chủ hộ: 190559667, số CMND cha: 190559667, số CMND mẹ: 190559809, số CMND vợ: 205497478, Công dân cung cấp giấy khai sinh bản sao 84 quyển 02 cấp ngày  bởi UBND phường Hương Chữ, Hương Trà, Thừa Thiên Huế.
 </t>
   </si>
   <si>
@@ -129,25 +139,187 @@
     <t>LÊ ÍCH ĐÔNG</t>
   </si>
   <si>
-    <t xml:space="preserve">LÊ THỊ THỈ: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND cha , số CMND mẹ , số CMND chồng.
-LÊ ÍCH ĐÔNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND mẹ, số CMND vợ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND cha .
-HOÀNG THỊ TUYỀN: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND cha, số CMND mẹ, số CMND chồng, nơi đăng ký khai sinh.
-LÊ ÍCH NAM: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND cha, số CMND mẹ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND vợ.
-LÊ ÍCH THUẬN: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu, số CMND chủ hộ, số CMND cha, số CMND mẹ, nơi đăng ký khai sinh. Chưa cung cấp được:  số CMND vợ.
+    <t xml:space="preserve">LÊ THỊ THỈ: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580171740, số CMND chủ hộ: 190559919,  Chưa cung cấp được:  số CMND cha , số CMND mẹ , số CMND chồng.
+LÊ ÍCH ĐÔNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580171740, số CMND chủ hộ: 190559919, số CMND mẹ: 190559919, số CMND vợ: 191326669,  Chưa cung cấp được:  số CMND cha .
+HOÀNG THỊ TUYỀN: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580171740, số CMND chủ hộ: 190559919, số CMND cha: 190559279, số CMND mẹ: 190559306, số CMND chồng: 191121491, 
+LÊ ÍCH NAM: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580171740, số CMND chủ hộ: 190559919, số CMND cha: 191121491, số CMND mẹ: 191326669,  Chưa cung cấp được:  số CMND vợ.
+LÊ ÍCH THUẬN: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580171740, số CMND chủ hộ: 190559919, số CMND cha: 191121491, số CMND mẹ: 191326669,  Chưa cung cấp được:  số CMND vợ.
+</t>
+  </si>
+  <si>
+    <t>TRẦN HỮU PHÚ</t>
+  </si>
+  <si>
+    <t>TRẦN HỮU NGỌ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRẦN HỮU PHÚ: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580163601, số CMND chủ hộ: 190188261, số CMND vợ: 190067965,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+HÀ THỊ THUỞ: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580163601, số CMND chủ hộ: 190188261, số CMND chồng: 190188261,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+TRẦN HỮU NGỌ: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580163601, số CMND chủ hộ: 190188261, số CMND cha: 190188261, số CMND mẹ: 190067965, số CMND vợ: 191449723, 
+LÊ THỊ NĂM: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580163601, số CMND chủ hộ: 190188261, số CMND cha: 190559520, số CMND mẹ: 190559555, số CMND chồng: 191405509, 
+TRẦN HỮU TUẤN KIỆT: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580163601, số CMND bản thân: 08/12/2019, số CMND chủ hộ: 190188261, số CMND cha: 191405509, số CMND mẹ: 191449723,  Chưa cung cấp được:  số CMND vợ.
+TRẦN THỊ ÁI LINH: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580163601, số CMND chủ hộ: 190188261, số CMND cha: 191405509, số CMND mẹ: 191449723,  Chưa cung cấp được: , số CMND bản thân , số CMND chồng.
+TRẦN HỮU DUY THỊNH: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580163601, số CMND chủ hộ: 190188261, số CMND cha: 191405509, số CMND mẹ: 191449723,  Chưa cung cấp được: , số CMND bản thân , số CMND vợ.
+</t>
+  </si>
+  <si>
+    <t>TRẦN HỮU MỪNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRẦN HỮU MỪNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580234714,  Chưa cung cấp được:  số CMND chủ hộ , số CMND cha , số CMND mẹ , số CMND vợ.
+</t>
+  </si>
+  <si>
+    <t>HOÀNG ĐẮC HẬU</t>
+  </si>
+  <si>
+    <t>QUÊ CHỮ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOÀNG ĐẮC HẬU: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580081553, số CMND chủ hộ: 191405559, số CMND vợ: 191431069,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+NGUYỄN THỊ NGUYỆT: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580081553, số CMND chủ hộ: 191405559, số CMND cha: 190188243, số CMND mẹ: 190599989, số CMND chồng: 191405559, 
+HOÀNG THỊ NGUYỆT NHI: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580081553, số CMND chủ hộ: 191405559, số CMND cha: 191405559, số CMND mẹ: 191431069,  Chưa cung cấp được: , số CMND bản thân , số CMND chồng.
+HOÀNG THỊ DIỄM MY: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580081553, số CMND chủ hộ: 191405559, số CMND cha: 191405559, số CMND mẹ: 191431069,  Chưa cung cấp được: , số CMND bản thân , số CMND chồng.
+HOÀNG THỊ KHÁNH AN: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580081553, số CMND chủ hộ: 191405559, số CMND cha: 191405559, số CMND mẹ: 191431069,  Chưa cung cấp được: , số CMND bản thân , số CMND chồng.
+</t>
+  </si>
+  <si>
+    <t>LÊ VĂN NGÃI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LÊ VĂN NGÃI: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580116943, số CMND chủ hộ: 191326790, số CMND cha: 191371461, số CMND mẹ: 190559567, số CMND vợ: 191371461, 
+LÊ THỊ TÂM: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580116943, số CMND chủ hộ: 191326790, số CMND cha: 190559580, số CMND chồng: 191326790,  Chưa cung cấp được: , số CMND bản thân , số CMND mẹ .
+LÊ VĂN DUY: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580116943, số CMND bản thân: 02/10/2015, số CMND chủ hộ: 191326790, số CMND cha: 191326790, số CMND mẹ: 191371461,  Chưa cung cấp được:  số CMND vợ.
+LÊ VĂN KHÁNH: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580116943, số CMND bản thân: 21/12/2019, số CMND chủ hộ: 191326790, số CMND cha: 191326790, số CMND mẹ: 191371461,  Chưa cung cấp được:  số CMND vợ.
+</t>
+  </si>
+  <si>
+    <t>LÊ VĂN SƠN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LÊ VĂN SƠN: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580279286, số CMND chủ hộ: 190559476, số CMND vợ: 191326767,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+PHAN THỊ THÌN: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580279286, số CMND chủ hộ: 190559476, số CMND mẹ: 190559896, số CMND chồng: 190559476,  Chưa cung cấp được:  số CMND cha .
+LÊ THỊ CẨM TÚ: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580279286, số CMND bản thân: 07/03/2018, số CMND chủ hộ: 190559476, số CMND cha: 190559476, số CMND mẹ: 191326767,  Chưa cung cấp được:  số CMND chồng.
+LÊ THỊ NGỌC TRÂM: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580279286, số CMND chủ hộ: 190559476, số CMND cha: 190559476, số CMND mẹ: 191326767, Công dân cung cấp giấy khai sinh bản sao 73 quyển 01/2007 cấp ngày  bởi UBND phường Hương Chữ, Hương Trà, Thừa Thiên Huế. Chưa cung cấp được: , số CMND bản thân , số CMND chồng.
+</t>
+  </si>
+  <si>
+    <t>PHAN THỊ HỒ</t>
+  </si>
+  <si>
+    <t>HÀ VĂN ĐĂNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHAN THỊ HỒ: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580081912, số CMND chủ hộ: 190559850,  Chưa cung cấp được:  số CMND cha , số CMND mẹ , số CMND chồng.
+HÀ VĂN ĐĂNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580081912, số CMND chủ hộ: 190559850, số CMND mẹ: 190559850, số CMND vợ: 191349066,  Chưa cung cấp được:  số CMND cha .
+NGUYỄN THỊ BÍCH HUỆ: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580081912, số CMND chủ hộ: 190559850, số CMND cha: 190593834, số CMND mẹ: 190598824, số CMND chồng: 191349118, 
+HÀ THỊ LỤA: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580081912, số CMND bản thân: 19/10/2015, số CMND chủ hộ: 190559850, số CMND cha: 191349118, số CMND mẹ: 191349066,  Chưa cung cấp được:  số CMND chồng.
+HÀ VĂN HẢI: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580081912, số CMND bản thân: 02/08/2019, số CMND chủ hộ: 190559850, số CMND cha: 191349118, số CMND mẹ: 191349066,  Chưa cung cấp được:  số CMND vợ.
+HÀ THỊ THANH THẢO: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580081912, số CMND chủ hộ: 190559850, số CMND cha: 191349118, số CMND mẹ: 191349066, Công dân cung cấp giấy khai sinh bản sao 11/2015 quyển 01 cấp ngày  bởi UBND phường Hương Chữ, Hương Trà, Thừa Thiên Huế. Chưa cung cấp được: , số CMND bản thân , số CMND chồng.
+HÀ THỊ THANH THÚY: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580081912, số CMND chủ hộ: 190559850, số CMND cha: 191349118, số CMND mẹ: 191349066, Công dân cung cấp giấy khai sinh bản chính 169 quyển 01/2012 cấp ngày  bởi UBND phường Hương Chữ, Hương Trà, Thừa Thiên Huế. Chưa cung cấp được: , số CMND bản thân , số CMND chồng.
+</t>
+  </si>
+  <si>
+    <t>HOÀNG ĐỢI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOÀNG ĐỢI: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580218718, số CMND chủ hộ: 190559326,  Chưa cung cấp được:  số CMND cha , số CMND mẹ , số CMND vợ.
+HOÀNG MINH THÁI: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580218718, số CMND chủ hộ: 190559326, số CMND cha: 190559326, số CMND vợ: 191772628,  Chưa cung cấp được:  số CMND mẹ .
+NGUYỄN THỊ THƠM: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580218718, số CMND chủ hộ: 190559326, số CMND cha: 191326923, số CMND mẹ: 191121468, số CMND chồng: 191713160, 
+</t>
+  </si>
+  <si>
+    <t>NGÔ NGỌC CHIÊM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGÔ NGỌC CHIÊM: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580171343, số CMND chủ hộ: 191265538, số CMND mẹ: 190559304, số CMND vợ: 191390580,  Chưa cung cấp được:  số CMND cha .
+TRƯƠNG THỊ VINH: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580171343, số CMND chủ hộ: 191265538, số CMND chồng: 191265538,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+NGÔ THỊ KIỀU OANH: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580171343, số CMND bản thân: 22/10/2014, số CMND chủ hộ: 191265538, số CMND cha: 191265538, số CMND mẹ: 191390580,  Chưa cung cấp được:  số CMND chồng.
+NGÔ THỊ KIỀU LINH: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580171343, số CMND bản thân: 08/12/2019, số CMND chủ hộ: 191265538, số CMND cha: 191265538, số CMND mẹ: 191390580,  Chưa cung cấp được:  số CMND chồng.
+NGÔ THỊ THANH HOA: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580171343, số CMND chủ hộ: 191265538, số CMND cha: 191265538, số CMND mẹ: 191390580, Công dân cung cấp giấy khai sinh bản sao 133 cấp ngày 09/11/2006 bởi UBND phường Hương Chữ, Hương Trà, Thừa Thiên Huế. Chưa cung cấp được: , số CMND bản thân , số CMND chồng.
+NGÔ QUỐC CƯỜNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580171343, số CMND chủ hộ: 191265538, số CMND cha: 191265538, số CMND mẹ: 191390580, Công dân cung cấp giấy khai sinh bản sao 208 cấp ngày 27/10/2009 bởi UBND phường Hương Chữ, Hương Trà, Thừa Thiên Huế. Chưa cung cấp được: , số CMND bản thân , số CMND vợ.
+</t>
+  </si>
+  <si>
+    <t>HOÀNG HẬU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOÀNG HẬU: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580082775, số CMND chủ hộ: 191326745, số CMND cha: 190607600, số CMND vợ: 191349319,  Chưa cung cấp được:  số CMND mẹ .
+CAO THỊ LỆ: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580082775, số CMND chủ hộ: 191326745, số CMND chồng: 191326745,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+HOÀNG CAO THẢO VY: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580082775, số CMND chủ hộ: 191326745, số CMND cha: 191326745, số CMND mẹ: 191349319, Công dân cung cấp giấy khai sinh bản sao 82 cấp ngày 10/08/2006 bởi UBND phường Hương Chữ, Hương Trà, Thừa Thiên Huế. Chưa cung cấp được: , số CMND bản thân , số CMND chồng.
+HOÀNG CAO ÁI VY: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580082775, số CMND chủ hộ: 191326745, số CMND cha: 191326745, số CMND mẹ: 191349319, Công dân cung cấp giấy khai sinh bản sao 113 cấp ngày 19/09/2008 bởi UBND phường Hương Chữ, Hương Trà, Thừa Thiên Huế. Chưa cung cấp được: , số CMND bản thân , số CMND chồng.
+HOÀNG THỊ NHẬT: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580082775, số CMND chủ hộ: 191326745, số CMND cha: 191326745, số CMND mẹ: 191349319, Công dân cung cấp giấy khai sinh bản sao 57 cấp ngày 07/03/2012 bởi UBND phường Hương Chữ, Hương Trà, Thừa Thiên Huế. Chưa cung cấp được: , số CMND bản thân , số CMND chồng.
+</t>
+  </si>
+  <si>
+    <t>HOÀNG ĐẮC KHỐI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOÀNG ĐẮC KHỐI: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580318168, số CMND chủ hộ: 191390515, số CMND cha: 190559385, số CMND mẹ: 190559421, số CMND vợ: 191390609, 
+PHAN THỊ PHƯỚC: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580318168, số CMND chủ hộ: 191390515, số CMND cha: 190559467, số CMND mẹ: 190559468, số CMND chồng: 191390515, 
+HOÀNG THỊ THANH XUÂN: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580318168, số CMND chủ hộ: 191390515, số CMND cha: 191390515, số CMND mẹ: 191390609, Công dân cung cấp giấy khai sinh bản chính 143 quyển 01/2005 cấp ngày 14/11/2005 bởi UBND phường Hương Chữ, Hương Trà, Thừa Thiên Huế. Chưa cung cấp được: , số CMND bản thân , số CMND chồng.
+HOÀNG ĐẮC NHẬT QUÝ: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580318168, số CMND chủ hộ: 191390515, số CMND cha: 191390515, số CMND mẹ: 191390609, Công dân cung cấp giấy khai sinh bản chính 130 quyển 01/2007 cấp ngày 24/07/2007 bởi UBND phường Hương Chữ, Hương Trà, Thừa Thiên Huế. Chưa cung cấp được: , số CMND bản thân , số CMND vợ.
+HOÀNG THỊ THANH THẢO: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580318168, số CMND chủ hộ: 191390515, số CMND cha: 191390515, số CMND mẹ: 191390609, Công dân cung cấp giấy khai sinh bản chính 139 quyển 01/2009 cấp ngày 10/09/2009 bởi UBND phường Hương Chữ, Hương Trà, Thừa Thiên Huế. Chưa cung cấp được: , số CMND bản thân , số CMND chồng.
+</t>
+  </si>
+  <si>
+    <t>HOÀNG ĐẶNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOÀNG ĐẶNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580171241, số CMND chủ hộ: 190559269, số CMND vợ: 190559324,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+PHAN THỊ MAI: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580171241, số CMND chủ hộ: 190559269, số CMND chồng: 190559269,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+</t>
+  </si>
+  <si>
+    <t>HOÀNG QUÝ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOÀNG QUÝ: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580155803, số CMND chủ hộ: 191517090, số CMND cha: 190559313, số CMND mẹ: 190559289, số CMND vợ: 191546491, 
+LÊ THỊ PHƯƠNG THÚY: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580155803, số CMND chủ hộ: 191517090, số CMND chồng: 191517090,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+HOÀNG LÊ PHƯƠNG NHI: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580155803, số CMND chủ hộ: 191517090, số CMND cha: 191517090, số CMND mẹ: 191546491, Công dân cung cấp giấy khai sinh bản chính 235 cấp ngày 04/12/2009 bởi UBND phường Hương Chữ, Hương Trà, Thừa Thiên Huế. Chưa cung cấp được: , số CMND bản thân , số CMND chồng.
+HOÀNG LÊ PHƯƠNG VI: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ, bản thân,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580155803, số CMND chủ hộ: 191517090, số CMND cha: 191517090, số CMND mẹ: 191546491, Công dân cung cấp giấy khai sinh bản chính 250 cấp ngày 21/12/2015 bởi UBND phường Hương Chữ, Hương Trà, Thừa Thiên Huế. Chưa cung cấp được: , số CMND bản thân , số CMND chồng.
+</t>
+  </si>
+  <si>
+    <t>HOÀNG NGỤ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOÀNG NGỤ: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580082726, số CMND chủ hộ: 190559398, số CMND vợ: 190559378,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+TRẦN THỊ MAI HƯƠNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580082726, số CMND chủ hộ: 190559398, số CMND chồng: 190559398,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+HOÀNG KIM ÂN: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580082726, số CMND chủ hộ: 190559398, số CMND cha: 190559398, số CMND mẹ: 190559378,  Chưa cung cấp được:  số CMND vợ.
+</t>
+  </si>
+  <si>
+    <t>HOÀNG VĂN TRUNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOÀNG VĂN TRUNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580082727, số CMND chủ hộ: 191121532, số CMND vợ: 191121870,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+HÀ THỊ THỦY: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580082727, số CMND chủ hộ: 191121870, số CMND chồng: 191121870,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+</t>
+  </si>
+  <si>
+    <t>HOÀNG ĐẠI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOÀNG ĐẠI: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580185900, số CMND chủ hộ: 190559362, số CMND cha: 19019410, số CMND vợ: 190194103,  Chưa cung cấp được:  số CMND mẹ .
+HOÀNG THỊ NGỌC LIÊN: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580185900, số CMND chủ hộ: 190559362, số CMND chồng: 190559362,  Chưa cung cấp được:  số CMND cha , số CMND mẹ .
+HOÀNG THỊ HẢI TRANG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580185900, số CMND chủ hộ: 190559362, số CMND cha: 190559362, số CMND mẹ: 190194103,  Chưa cung cấp được:  số CMND chồng.
+HOÀNG THỊ THÚY DUNG: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580185900, số CMND chủ hộ: 190559362, số CMND cha: 190559362, số CMND mẹ: 190194103,  Chưa cung cấp được:  số CMND chồng.
+HOÀNG THỊ KIỀU LOAN: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580185900, số CMND chủ hộ: 190559362, số CMND cha: 190559362, số CMND mẹ: 190194103,  Chưa cung cấp được:  số CMND chồng.
+HOÀNG NGỌC PHƯỚC: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,vợ, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580185900, số CMND chủ hộ: 190559362, số CMND cha: 190559362, số CMND mẹ: 190194103,  Chưa cung cấp được:  số CMND vợ.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">: Thiếu nơi đăng ký khai sinh; thiếu số sổ hộ khẩu; thiếu số CMND của cha, mẹ,chồng, chủ hộ. Đã bổ sung: số sổ hộ khẩu: 580070382,  Chưa cung cấp được:  số CMND chủ hộ , số CMND cha , số CMND mẹ , số CMND chồng.
 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -158,28 +330,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -469,19 +653,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="86" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,11 +687,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="288" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1602</v>
       </c>
@@ -529,11 +713,11 @@
       <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1776</v>
       </c>
@@ -555,11 +739,11 @@
       <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2799</v>
       </c>
@@ -581,11 +765,11 @@
       <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>935</v>
       </c>
@@ -599,7 +783,7 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -607,16 +791,16 @@
       <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>983</v>
+        <v>2408</v>
       </c>
       <c r="B6">
-        <v>580218297</v>
+        <v>580171138</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -628,21 +812,21 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1669</v>
+        <v>983</v>
       </c>
       <c r="B7">
-        <v>580318411</v>
+        <v>580218297</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -651,7 +835,7 @@
         <v>19</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -659,16 +843,16 @@
       <c r="G7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1650</v>
+        <v>1669</v>
       </c>
       <c r="B8">
-        <v>580308139</v>
+        <v>580318411</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -685,25 +869,25 @@
       <c r="G8" t="s">
         <v>9</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>874</v>
+        <v>1650</v>
       </c>
       <c r="B9">
-        <v>580171740</v>
+        <v>580308139</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -711,22 +895,445 @@
       <c r="G9" t="s">
         <v>9</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>874</v>
+      </c>
+      <c r="B10">
+        <v>580171740</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>765</v>
+      </c>
+      <c r="B11">
+        <v>580163601</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>764</v>
+      </c>
+      <c r="B12">
+        <v>580234714</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2328</v>
+      </c>
+      <c r="B13">
+        <v>580081553</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2091</v>
+      </c>
+      <c r="B14">
+        <v>580116943</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1012</v>
+      </c>
+      <c r="B15">
+        <v>580279286</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>869</v>
+      </c>
+      <c r="B16">
+        <v>580081912</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>651</v>
+      </c>
+      <c r="B17">
+        <v>580218718</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="360" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1845</v>
+      </c>
+      <c r="B18">
+        <v>580171343</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1848</v>
+      </c>
+      <c r="B19">
+        <v>580082775</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2890</v>
+      </c>
+      <c r="B20">
+        <v>580318168</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>674</v>
+      </c>
+      <c r="B21">
+        <v>580171241</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2365</v>
+      </c>
+      <c r="B22">
+        <v>580155803</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>610</v>
+      </c>
+      <c r="B23">
+        <v>580082726</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1571</v>
+      </c>
+      <c r="B24">
+        <v>580082727</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>707</v>
+      </c>
+      <c r="B25">
+        <v>580185900</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2080</v>
+      </c>
+      <c r="B26">
+        <v>580070382</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>